--- a/Excel_dataframe.xlsx
+++ b/Excel_dataframe.xlsx
@@ -972,7 +972,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -3322,7 +3322,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -3604,7 +3604,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -3698,7 +3698,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>

--- a/Excel_dataframe.xlsx
+++ b/Excel_dataframe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,7 +502,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -685,476 +685,6 @@
       <c r="M5" t="inlineStr">
         <is>
           <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>38</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>imagen</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>DEPORTIVOS ESPN</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>37</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>imagen</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>DEPORTIVOS ESPN</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>33</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>imagen</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>DEPORTIVOS ESPN</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>33</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>imagen</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>DEPORTIVOS ESPN</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>43</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>imagen</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DOCUMENTALES DE COMIDA - EL OSO</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>42</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>imagen</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DOCUMENTALES DE COMIDA - EL OSO</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>40</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>11</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>imagen</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DOCUMENTALES DE COMIDA - EL OSO</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>40</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>12</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>imagen</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DOCUMENTALES DE COMIDA - EL OSO</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>36</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>13</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>imagen</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>NAVIDEÑOS</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>35</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>14</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>imagen</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>NAVIDEÑOS</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>B</t>
         </is>
       </c>
     </row>

--- a/Excel_dataframe.xlsx
+++ b/Excel_dataframe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,7 +502,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -542,147 +542,6 @@
         </is>
       </c>
       <c r="M2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>45</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>imagen</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>NAVIDEÑOS</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>46</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>imagen</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>NAVIDEÑOS</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>46</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>imagen</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>NAVIDEÑOS</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
